--- a/Data/KBFiles/candidate_names.xlsx
+++ b/Data/KBFiles/candidate_names.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regina\Google Drive\Thesis\Dummy Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCS\Documents\Athena_Integrated\Data\KBFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Binay</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>santiago</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Jejumar</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -503,8 +509,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>

--- a/Data/KBFiles/candidate_names.xlsx
+++ b/Data/KBFiles/candidate_names.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCS\Documents\Athena_Integrated\Data\KBFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regina\Google Drive\Thesis\Dummy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Binay</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>santiago</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Jejumar</t>
   </si>
 </sst>
 </file>
@@ -447,7 +441,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -509,14 +503,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
